--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{764AC936-AD96-D44E-9206-0C372AD019AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40974B73-12AB-AB44-B65F-866384A38F9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Advanced adherence support</t>
+  </si>
+  <si>
+    <t>Coverage interation</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Additive</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1581,59 +1590,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="I2" s="6" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="J2" s="6" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="K2" s="6" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="L2" s="6" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="M2" s="6" t="str">
         <f>'Program targeting'!$C$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="N2" s="6" t="str">
         <f>'Program targeting'!$C$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1643,20 +1658,24 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1666,19 +1685,23 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1688,20 +1711,24 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="9">
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="9">
         <v>0.98</v>
       </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
         <v>0.92</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1711,19 +1738,23 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1733,20 +1764,24 @@
       <c r="D9" s="9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="9">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="9">
         <v>0.1</v>
       </c>
-      <c r="L9" s="9">
+      <c r="N9" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1756,23 +1791,27 @@
       <c r="D10" s="9">
         <v>0.7</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="9">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="9">
         <v>0.15</v>
       </c>
-      <c r="L10" s="9">
+      <c r="N10" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1782,20 +1821,24 @@
       <c r="D12" s="9">
         <v>0.3</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="9">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="9">
         <v>0.1</v>
       </c>
-      <c r="L12" s="9">
+      <c r="N12" s="9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1805,20 +1848,24 @@
       <c r="D13" s="9">
         <v>0.4</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="9">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9">
         <v>0.15</v>
       </c>
-      <c r="L13" s="9">
+      <c r="N13" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1828,22 +1875,24 @@
       <c r="D15" s="5">
         <v>1.5</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5">
         <v>0.5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="I15" s="5">
         <v>0.3</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <v>0.2</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1853,22 +1902,37 @@
       <c r="D16" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5">
         <v>0.6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="5">
         <v>0.4</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
         <v>0.3</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E7 E9:E10 E12:E13 E15:E16" xr:uid="{4A8B5354-CAD5-744E-9FC8-B5F175C8B756}">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4 F6:F7 F9:F10 F12:F13 F15:F16" xr:uid="{FAE4AD39-1193-014C-BB4F-3B30EDC43545}">
+      <formula1>"Synergistic,best"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40974B73-12AB-AB44-B65F-866384A38F9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE001948-1D3B-3644-9CB3-FC05C38BD0C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,8 +775,12 @@
         <v>16</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -797,8 +801,12 @@
         <v>17</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -821,8 +829,12 @@
         <v>18</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1592,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE001948-1D3B-3644-9CB3-FC05C38BD0C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E028366-BB0C-D247-8517-A94E670E6E26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -93,15 +93,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Unit cost: best</t>
-  </si>
-  <si>
-    <t>Unit cost: low</t>
-  </si>
-  <si>
-    <t>Unit cost: high</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -151,6 +142,9 @@
   </si>
   <si>
     <t>Additive</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
   </si>
 </sst>
 </file>
@@ -602,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -691,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -717,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -743,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
@@ -769,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -795,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -823,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -916,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,7 +985,7 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="11">
@@ -1006,41 +1000,43 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - clinics</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - outreach</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10">
+        <v>6000000</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="12"/>
+      <c r="B8" s="4" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="str">
@@ -1048,11 +1044,12 @@
         <v>Testing - outreach</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10">
-        <v>6000000</v>
+      <c r="E9" s="11">
+        <f>15/0.15</f>
+        <v>100</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1062,34 +1059,19 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Same-day initiation counselling</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="11">
-        <f>15/0.15</f>
-        <v>100</v>
+      <c r="E11" s="10">
+        <v>60000000</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1100,52 +1082,54 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Same-day initiation counselling</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Same-day initiation counselling</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Same-day initiation counselling</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Classic initiation counselling</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="10">
-        <v>60000000</v>
+        <v>45000000</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1156,88 +1140,90 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Same-day initiation counselling</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Classic initiation counselling</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Same-day initiation counselling</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Classic initiation counselling</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="11">
-        <v>200</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Same-day initiation counselling</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Same-day initiation counselling</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Client tracing</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10">
+        <v>600000</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="12"/>
+      <c r="B20" s="4" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Client tracing</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Classic initiation counselling</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Client tracing</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="10">
-        <v>45000000</v>
+      <c r="E21" s="11">
+        <v>60</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1247,33 +1233,19 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Classic initiation counselling</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Classic initiation counselling</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Advanced adherence support</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="11">
-        <v>300</v>
+      <c r="E23" s="10">
+        <v>600000</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1284,11 +1256,11 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Classic initiation counselling</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Advanced adherence support</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1301,14 +1273,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Classic initiation counselling</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Advanced adherence support</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="11">
+        <v>150</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="2" t="s">
@@ -1321,27 +1295,27 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Client tracing</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Whatsapp adherence support</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+        <v>10000</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Client tracing</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Whatsapp adherence support</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -1357,15 +1331,15 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Client tracing</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Whatsapp adherence support</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11">
-        <v>60</v>
+        <v>0.05</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1375,225 +1349,7 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Client tracing</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Client tracing</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Advanced adherence support</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Advanced adherence support</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Advanced adherence support</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="11">
-        <v>150</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Advanced adherence support</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Advanced adherence support</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Whatsapp adherence support</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Whatsapp adherence support</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Whatsapp adherence support</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Whatsapp adherence support</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Whatsapp adherence support</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E44" s="12"/>
+      <c r="E30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,18 +1374,18 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
@@ -1662,7 +1418,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1671,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
@@ -1689,7 +1445,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1698,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -1715,7 +1471,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1724,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -1742,7 +1498,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1751,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
@@ -1768,7 +1524,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1777,7 +1533,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
@@ -1795,7 +1551,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1804,7 +1560,7 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
@@ -1825,7 +1581,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1834,7 +1590,7 @@
         <v>0.3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
@@ -1852,7 +1608,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -1861,7 +1617,7 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
@@ -1879,7 +1635,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -1906,7 +1662,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E028366-BB0C-D247-8517-A94E670E6E26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27AC78F2-E344-BB42-AF20-8E23D19C9604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22480" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -42,24 +42,6 @@
     <t>Males</t>
   </si>
   <si>
-    <t>undx</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>linked</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
     <t>Program 1</t>
   </si>
   <si>
@@ -145,6 +127,24 @@
   </si>
   <si>
     <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Undiagnosed</t>
+  </si>
+  <si>
+    <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Linked to care</t>
+  </si>
+  <si>
+    <t>Lost to follow-up</t>
+  </si>
+  <si>
+    <t>Virally suppressed (comp)</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -636,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -685,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -711,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -737,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -763,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -789,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
@@ -817,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
@@ -940,7 +940,7 @@
         <v>2018</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="10">
@@ -958,7 +958,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -968,14 +968,14 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -985,7 +985,7 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="11">
@@ -995,7 +995,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>Testing - outreach</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10">
@@ -1017,7 +1017,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>Testing - outreach</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -1044,7 +1044,7 @@
         <v>Testing - outreach</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="11">
@@ -1054,7 +1054,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>Same-day initiation counselling</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="10">
@@ -1076,7 +1076,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1086,14 +1086,14 @@
         <v>Same-day initiation counselling</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1103,7 +1103,7 @@
         <v>Same-day initiation counselling</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="11">
@@ -1112,7 +1112,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -1125,7 +1125,7 @@
         <v>Classic initiation counselling</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="10">
@@ -1134,7 +1134,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1144,14 +1144,14 @@
         <v>Classic initiation counselling</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -1161,7 +1161,7 @@
         <v>Classic initiation counselling</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="11">
@@ -1170,7 +1170,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1183,7 +1183,7 @@
         <v>Client tracing</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="10">
@@ -1192,7 +1192,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -1202,14 +1202,14 @@
         <v>Client tracing</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -1219,7 +1219,7 @@
         <v>Client tracing</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="11">
@@ -1228,7 +1228,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>Advanced adherence support</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="10">
@@ -1250,7 +1250,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -1260,14 +1260,14 @@
         <v>Advanced adherence support</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1277,7 +1277,7 @@
         <v>Advanced adherence support</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="11">
@@ -1286,7 +1286,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I25" s="5"/>
     </row>
@@ -1299,7 +1299,7 @@
         <v>Whatsapp adherence support</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="10">
@@ -1308,7 +1308,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -1318,14 +1318,14 @@
         <v>Whatsapp adherence support</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5"/>
     </row>
@@ -1335,7 +1335,7 @@
         <v>Whatsapp adherence support</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11">
@@ -1344,7 +1344,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I29" s="5"/>
     </row>
@@ -1374,18 +1374,18 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1533,7 +1533,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1560,7 +1560,7 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1590,7 +1590,7 @@
         <v>0.3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -1617,7 +1617,7 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75058844-2339-4170-9006-2D1252C1F735}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -223,13 +229,16 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,9 +323,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,24 +346,145 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
+  <dxfs count="188">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -365,8 +494,1129 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,7 +1663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,9 +1695,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,6 +1747,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,905 +1940,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="2" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C3:D9">
+    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="37" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="53" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="54" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="70" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="85" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="86" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="101" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="102" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="117" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="118" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="39" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="55" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="56" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="71" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="72" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="87" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="88" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="103" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="104" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="119" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="120" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="57" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="58" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="73" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="74" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="89" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="90" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="105" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="106" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="121" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="122" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="91" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="92" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="107" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="108" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="123" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="124" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="93" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="94" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="109" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="110" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="125" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="47" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="63" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="64" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="79" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="80" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="103" priority="33" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="34" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="101" priority="49" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="99" priority="65" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="97" priority="81" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="82" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="87" priority="51" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="52" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="79" priority="115" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="116" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="77" priority="131" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="132" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H6">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H6">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="108" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="94" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="96" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="112" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="56">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J9">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D9 F3:K9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1561,12 +2661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1574,816 +2674,816 @@
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>15000000</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>100</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>2015</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2016</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2017</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>6000000</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>100</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2015</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2016</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2017</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>60000000</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>200</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>2015</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2016</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2017</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>45000000</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>300</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>2015</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>2016</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2017</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
         <v>600000</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <v>60</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>2015</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>2016</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>2017</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <v>600000</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
         <v>150</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>2015</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>2016</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>2017</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
         <v>10000</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
         <v>0.05</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="75" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="74" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="72" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="69" priority="19">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="68" priority="20">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="67" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="66" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="65" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="64" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="61" priority="25">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="59" priority="27">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="57" priority="29">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="56" priority="30">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="55" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="54" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="53" priority="33">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="52" priority="34">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="51" priority="35">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="50" priority="36">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="49" priority="37">
       <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="38" priority="46">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="32" priority="52">
       <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="29" priority="53">
       <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="26" priority="56">
       <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2392,578 +3492,520 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="35.85546875" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="12" max="13" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="6"/>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L5" s="3" t="str">
+      <c r="L5" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1.5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="8">
+      <c r="E6" s="6"/>
+      <c r="G6" s="7">
         <v>0.5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.3</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7">
         <v>0.2</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B7" s="8">
-        <v>2.2</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="8">
+      <c r="E7" s="6"/>
+      <c r="G7" s="7">
         <v>0.6</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.4</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7">
         <v>0.3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="J9" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L9" s="3" t="str">
+      <c r="L9" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="E10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7">
         <v>0.98</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.92</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L13" s="3" t="str">
+      <c r="L13" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8">
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7">
         <v>0.1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0.7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8">
+      <c r="E15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7">
         <v>0.15</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="J17" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L17" s="3" t="str">
+      <c r="L17" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0.3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8">
+      <c r="E18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7">
         <v>0.1</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0.4</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8">
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7">
         <v>0.15</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C14:C15 C10:C11 C6:C7 C2:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 D14:D15 D10:D11 D6:D7 D2:D3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -15,81 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Diagnosis rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Average time taken to be linked to care (years)" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Initiation rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Loss-to-follow-up rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Treatment failure rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="46">
   <si>
@@ -189,16 +114,16 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Unit cost</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>Demand constraint</t>
   </si>
   <si>
     <t>Diagnosis rate</t>
@@ -235,19 +160,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -267,7 +186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
+        <fgColor rgb="FF98E0FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,22 +239,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -696,42 +613,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -742,28 +659,28 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -774,28 +691,28 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -806,28 +723,28 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -838,28 +755,28 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -870,28 +787,28 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -902,28 +819,28 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -934,28 +851,28 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1429,690 +1346,690 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>15000000</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>6000000</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>100</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F15" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G15" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>6000000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>60000000</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>200</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>100</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>2015</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F22" s="2">
         <v>2016</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G22" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>45000000</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>300</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <v>200</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>2015</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F29" s="2">
         <v>2016</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G29" s="2">
         <v>2017</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H29" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
-        <v>45000000</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>600000</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>60</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>300</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>2015</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F36" s="2">
         <v>2016</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G36" s="2">
         <v>2017</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H36" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
         <v>600000</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <v>150</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <v>60</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <v>2015</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F43" s="2">
         <v>2016</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G43" s="2">
         <v>2017</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H43" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8">
-        <v>600000</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8">
-        <v>150</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -2422,46 +2339,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
@@ -2471,92 +2388,92 @@
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="5"/>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L5" s="3" t="str">
+      <c r="L5" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
@@ -2566,100 +2483,100 @@
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>1.5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="8">
+      <c r="E6" s="5"/>
+      <c r="G6" s="6">
         <v>0.5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>0.3</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6">
         <v>0.2</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>2.2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="8">
+      <c r="E7" s="5"/>
+      <c r="G7" s="6">
         <v>0.6</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.4</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
         <v>0.3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="J9" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L9" s="3" t="str">
+      <c r="L9" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
@@ -2669,92 +2586,92 @@
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
         <v>0.98</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>0.92</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L13" s="3" t="str">
+      <c r="L13" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
@@ -2764,25 +2681,25 @@
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>0.5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8">
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6">
         <v>0.1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -2791,69 +2708,69 @@
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>0.7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8">
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6">
         <v>0.15</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Same-day initiation counselling</v>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="J17" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Classic initiation counselling</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Client tracing</v>
       </c>
-      <c r="L17" s="3" t="str">
+      <c r="L17" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>Advanced adherence support</v>
       </c>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>Whatsapp adherence support</v>
       </c>
@@ -2863,25 +2780,25 @@
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>0.3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8">
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6">
         <v>0.1</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -2890,25 +2807,25 @@
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>0.4</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8">
+      <c r="E19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6">
         <v>0.15</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -3536,6 +3453,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B0C4E93-13F1-A24F-A07A-D5868C5286B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -57,9 +63,6 @@
     <t>Testing - clinics</t>
   </si>
   <si>
-    <t>Program 1</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -69,37 +72,19 @@
     <t>Testing - outreach</t>
   </si>
   <si>
-    <t>Program 2</t>
-  </si>
-  <si>
     <t>Same-day initiation counselling</t>
-  </si>
-  <si>
-    <t>Program 3</t>
   </si>
   <si>
     <t>Classic initiation counselling</t>
   </si>
   <si>
-    <t>Program 4</t>
-  </si>
-  <si>
     <t>Client tracing</t>
-  </si>
-  <si>
-    <t>Program 5</t>
   </si>
   <si>
     <t>Advanced adherence support</t>
   </si>
   <si>
-    <t>Program 6</t>
-  </si>
-  <si>
     <t>Whatsapp adherence support</t>
-  </si>
-  <si>
-    <t>Program 7</t>
   </si>
   <si>
     <t>Uncertainty</t>
@@ -159,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,26 +246,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="266">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -304,8 +270,2905 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,7 +3215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,9 +3247,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,6 +3299,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,26 +3492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -652,678 +3546,513 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="56">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:K9 C3:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1332,28 +4061,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2">
@@ -1369,14 +4098,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6">
@@ -1385,14 +4114,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
@@ -1401,57 +4130,57 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -1467,14 +4196,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
@@ -1483,14 +4212,14 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
@@ -1499,57 +4228,57 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
@@ -1565,14 +4294,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
@@ -1581,14 +4310,14 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
@@ -1597,57 +4326,57 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -1663,14 +4392,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
@@ -1679,14 +4408,14 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6">
@@ -1695,57 +4424,57 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -1761,14 +4490,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6">
@@ -1777,14 +4506,14 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
@@ -1793,57 +4522,57 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -1859,14 +4588,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6">
@@ -1875,14 +4604,14 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6">
@@ -1891,57 +4620,57 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -1957,14 +4686,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6">
@@ -1973,14 +4702,14 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6">
@@ -1989,42 +4718,42 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2033,282 +4762,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="209" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="208" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="207" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="206" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="205" priority="17">
       <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="204" priority="18">
       <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="203" priority="19">
       <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="202" priority="20">
       <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="201" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="200" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="199" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="198" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="197" priority="25">
       <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="196" priority="26">
       <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="195" priority="27">
       <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="194" priority="28">
       <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="193" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="192" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="191" priority="29">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="190" priority="30">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="189" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="188" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="187" priority="33">
       <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="186" priority="34">
       <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="185" priority="35">
       <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="184" priority="36">
       <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="183" priority="37">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="182" priority="38">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="181" priority="39">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="180" priority="40">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="179" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="178" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="177" priority="41">
       <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="176" priority="42">
       <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="175" priority="43">
       <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="174" priority="44">
       <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="173" priority="45">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="172" priority="46">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1" priority="47">
+    <cfRule type="expression" dxfId="171" priority="47">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="170" priority="48">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="169" priority="49">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="168" priority="50">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="167" priority="51">
       <formula>COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="166" priority="52">
       <formula>AND(COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="165" priority="53">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="164" priority="54">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="163" priority="55">
       <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="162" priority="56">
       <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="161" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="160" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="159" priority="57">
       <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="158" priority="58">
       <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="157" priority="59">
       <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="156" priority="60">
       <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="155" priority="61">
       <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62">
+    <cfRule type="expression" dxfId="154" priority="62">
       <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1" priority="63">
+    <cfRule type="expression" dxfId="153" priority="63">
       <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="64">
+    <cfRule type="expression" dxfId="152" priority="64">
       <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1" priority="65">
+    <cfRule type="expression" dxfId="151" priority="65">
       <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
+    <cfRule type="expression" dxfId="150" priority="66">
       <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1" priority="67">
+    <cfRule type="expression" dxfId="149" priority="67">
       <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
+    <cfRule type="expression" dxfId="148" priority="68">
       <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1" priority="69">
+    <cfRule type="expression" dxfId="147" priority="69">
       <formula>COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
+    <cfRule type="expression" dxfId="146" priority="70">
       <formula>AND(COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="145" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="144" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="143" priority="9">
       <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="142" priority="10">
       <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="141" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="140" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,42 +5046,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="13" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -2383,7 +5108,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2392,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
@@ -2410,7 +5135,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2419,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
@@ -2433,21 +5158,21 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -2478,7 +5203,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2487,10 +5212,10 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="6">
@@ -2507,19 +5232,19 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
       </c>
       <c r="B7" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="6">
@@ -2536,21 +5261,21 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -2581,7 +5306,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2590,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
@@ -2608,7 +5333,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2617,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
@@ -2631,21 +5356,21 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -2676,7 +5401,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2685,10 +5410,10 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -2703,7 +5428,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2712,10 +5437,10 @@
         <v>0.7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
@@ -2730,21 +5455,21 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -2775,7 +5500,7 @@
         <v>Whatsapp adherence support</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Females</v>
@@ -2784,10 +5509,10 @@
         <v>0.3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
@@ -2802,7 +5527,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Males</v>
@@ -2811,10 +5536,10 @@
         <v>0.4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5"/>
       <c r="G19" s="5"/>
@@ -2830,628 +5555,2750 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="57">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="71">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="85">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="99">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="2" priority="113">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="2" priority="127">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="29">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="43">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="59">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="87">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="101">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="2" priority="115">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="2" priority="129">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="31">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="2" priority="45">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="61">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="89">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="2" priority="117">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="47">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="63">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="91">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="105">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="2" priority="119">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="2" priority="133">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="2" priority="49">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="65">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="79">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="93">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="107">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="2" priority="121">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="81">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="95">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="2" priority="123">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="2" priority="137">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="2" priority="39">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="2" priority="53">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="2" priority="69">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="83">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="97">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="2" priority="111">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="2" priority="125">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="2" priority="139">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="41">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="2" priority="55">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C14:C15 C10:C11 C6:C7 C2:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 D14:D15 D10:D11 D6:D7 D2:D3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-000047000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000048000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-000055000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-000056000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="99" id="{00000000-000E-0000-0200-000063000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="100" id="{00000000-000E-0000-0200-000064000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000071000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-000072000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-00007F000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-000080000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-00003B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-00003C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000049000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-00004A000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-000057000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000058000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="101" id="{00000000-000E-0000-0200-000065000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="102" id="{00000000-000E-0000-0200-000066000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-000073000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-000074000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-00003D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-00003E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="89" id="{00000000-000E-0000-0200-000059000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="90" id="{00000000-000E-0000-0200-00005A000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="103" id="{00000000-000E-0000-0200-000067000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="104" id="{00000000-000E-0000-0200-000068000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-000075000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-000076000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-000083000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-000084000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-00002F000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000030000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-00003F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000040000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000069000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-00006A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="119" id="{00000000-000E-0000-0200-000077000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="120" id="{00000000-000E-0000-0200-000078000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-000085000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-000086000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-00004F000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-000050000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="93" id="{00000000-000E-0000-0200-00005D000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="94" id="{00000000-000E-0000-0200-00005E000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="107" id="{00000000-000E-0000-0200-00006B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="108" id="{00000000-000E-0000-0200-00006C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000079000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-00007A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000033000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000034000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000051000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-000052000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="95" id="{00000000-000E-0000-0200-00005F000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="96" id="{00000000-000E-0000-0200-000060000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-00006D000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="110" id="{00000000-000E-0000-0200-00006E000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-00007B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-00007C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-000035000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-000036000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-000053000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-000054000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="97" id="{00000000-000E-0000-0200-000061000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="98" id="{00000000-000E-0000-0200-000062000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-00006F000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-000070000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="125" id="{00000000-000E-0000-0200-00007D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="126" id="{00000000-000E-0000-0200-00007E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000029000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00002A000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B0C4E93-13F1-A24F-A07A-D5868C5286B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6ED1C2A-4C9E-AC40-8E6A-C065B22F104C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -3495,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4064,7 +4064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4072,6 +4074,7 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -5049,7 +5052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="43">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>Average time taken to be linked to care (years)</t>
@@ -2566,9 +2563,7 @@
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
         <v>1</v>
@@ -2593,9 +2588,7 @@
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2607,7 +2600,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -2661,9 +2654,7 @@
       <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -2690,9 +2681,7 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="6">
         <v>0.6</v>
@@ -2710,7 +2699,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>35</v>
@@ -2764,9 +2753,7 @@
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2791,9 +2778,7 @@
       <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2805,7 +2790,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
@@ -2859,9 +2844,7 @@
       <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2886,9 +2869,7 @@
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2904,7 +2885,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -2958,9 +2939,7 @@
       <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2985,9 +2964,7 @@
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3002,51 +2979,131 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="95">
+      <formula>COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="96">
+      <formula>AND(COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="111">
+      <formula>COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="112">
+      <formula>AND(COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="1" priority="127">
+      <formula>COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="128">
+      <formula>AND(COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>AND(COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="1" priority="159">
+      <formula>COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="160">
+      <formula>AND(COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="16">
+      <formula>AND(COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="32">
+      <formula>AND(COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>AND(COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="1" priority="63">
+      <formula>COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="64">
+      <formula>AND(COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3059,74 +3116,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="132">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3139,74 +3196,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
+    <cfRule type="expression" dxfId="3" priority="150">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3219,74 +3276,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="2" priority="119">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
+    <cfRule type="expression" dxfId="3" priority="120">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3299,74 +3356,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="107">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="2" priority="135">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3379,74 +3436,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="107">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="108">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
+    <cfRule type="expression" dxfId="3" priority="156">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3459,74 +3516,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="59">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="60">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="2" priority="111">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3539,26 +3596,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_hiv.xlsx
+++ b/tests/databooks/progbook_hiv.xlsx
@@ -2439,43 +2439,43 @@
   </conditionalFormatting>
   <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>"people/year,people"</formula1>
